--- a/heap_trees&&sorting/lab 5.xlsx
+++ b/heap_trees&&sorting/lab 5.xlsx
@@ -158,11 +158,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1836590952"/>
-        <c:axId val="929890829"/>
+        <c:axId val="918355762"/>
+        <c:axId val="977556746"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1836590952"/>
+        <c:axId val="918355762"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -214,10 +214,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="929890829"/>
+        <c:crossAx val="977556746"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="929890829"/>
+        <c:axId val="977556746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -264,7 +264,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>nom. of comparisons</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -292,7 +292,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1836590952"/>
+        <c:crossAx val="918355762"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -400,11 +400,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2138564367"/>
-        <c:axId val="639825548"/>
+        <c:axId val="1777252029"/>
+        <c:axId val="537888766"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138564367"/>
+        <c:axId val="1777252029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,10 +456,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639825548"/>
+        <c:crossAx val="537888766"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="639825548"/>
+        <c:axId val="537888766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +506,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>nom. of comparisons</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -534,7 +534,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138564367"/>
+        <c:crossAx val="1777252029"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -642,11 +642,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="838856814"/>
-        <c:axId val="1522553150"/>
+        <c:axId val="847720204"/>
+        <c:axId val="1653429648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="838856814"/>
+        <c:axId val="847720204"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,10 +698,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522553150"/>
+        <c:crossAx val="1653429648"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1522553150"/>
+        <c:axId val="1653429648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -748,7 +748,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>nom. of comparisons</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -776,7 +776,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="838856814"/>
+        <c:crossAx val="847720204"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -884,11 +884,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1547184982"/>
-        <c:axId val="293746471"/>
+        <c:axId val="1427928872"/>
+        <c:axId val="1359155760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1547184982"/>
+        <c:axId val="1427928872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,10 +940,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293746471"/>
+        <c:crossAx val="1359155760"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293746471"/>
+        <c:axId val="1359155760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +990,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>nom. of comparisons</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1018,7 +1018,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1547184982"/>
+        <c:crossAx val="1427928872"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1048,10 +1048,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -1139,9 +1139,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
